--- a/USHPRR/fission_product_yields.xlsx
+++ b/USHPRR/fission_product_yields.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A6A93F-7774-3A45-858F-5A47CA7C8721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD090E2E-79EA-444A-BA98-A9ED9E303726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27420" yWindow="10040" windowWidth="22880" windowHeight="16940" xr2:uid="{01419A99-D3EF-CE47-BC06-A18809FA6597}"/>
+    <workbookView xWindow="5660" yWindow="2200" windowWidth="22880" windowHeight="16940" xr2:uid="{01419A99-D3EF-CE47-BC06-A18809FA6597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Fission Product Yields</t>
   </si>
@@ -106,13 +106,73 @@
   </si>
   <si>
     <t>gases</t>
+  </si>
+  <si>
+    <t>54-Xe-131</t>
+  </si>
+  <si>
+    <t>54-Xe-134</t>
+  </si>
+  <si>
+    <t>54-Xe-135</t>
+  </si>
+  <si>
+    <t>54-Xe-136</t>
+  </si>
+  <si>
+    <t>Th-232, U-232, U-233, U-234</t>
+  </si>
+  <si>
+    <t>U-235</t>
+  </si>
+  <si>
+    <t>  0</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>  0.000038</t>
+  </si>
+  <si>
+    <t>  0.0313</t>
+  </si>
+  <si>
+    <t>  0.189</t>
+  </si>
+  <si>
+    <t>  1.22</t>
+  </si>
+  <si>
+    <t> 54-Xe-128</t>
+  </si>
+  <si>
+    <t>  54-Xe-130</t>
+  </si>
+  <si>
+    <t>  54-Xe-131m</t>
+  </si>
+  <si>
+    <t>  54-Xe-133</t>
+  </si>
+  <si>
+    <t>  54-Xe-133m</t>
+  </si>
+  <si>
+    <t>  54-Xe-135</t>
+  </si>
+  <si>
+    <t>  54-Xe-135m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +191,26 @@
     <font>
       <sz val="10"/>
       <color rgb="FF113E70"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -155,11 +235,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE070693-A76E-DD44-9939-15271C8063F3}">
-  <dimension ref="B3:N66"/>
+  <dimension ref="B3:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,7 +797,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="J17" t="s">
@@ -721,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="G18" t="s">
@@ -738,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="J19" s="2" t="s">
@@ -748,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="J20" t="s">
@@ -758,7 +844,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="J21" s="2" t="s">
@@ -768,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="J22" t="s">
@@ -778,11 +864,11 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="J24" t="s">
@@ -793,99 +879,316 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4131</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.6208E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.7488E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3.6046000000000002E-2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.7359000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5134</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5.2040999999999997E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5.2266E-2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>6.3002000000000002E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.7404999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4135</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1.0204000000000001E-4</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1.7298999999999998E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.2267999999999999E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6.7635999999999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4136</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.5447000000000003E-2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>6.7405000000000007E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6.6675999999999999E-2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6.3064999999999996E-2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31">
+        <v>9.7999999999999993E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4131</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2.8972999999999999E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.9503000000000001E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3.2141999999999997E-2</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3.2877999999999998E-2</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5134</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7.8448000000000004E-2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>7.6933000000000001E-2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>6.7222000000000004E-2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>7.4570999999999998E-2</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4135</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.5761E-3</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1.0491000000000001E-3</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3.8408000000000002E-4</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2.6864E-4</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="9">
+        <v>6.61</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4136</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6.0911E-2</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="5">
+        <f>SUM(D33:D36)</f>
+        <v>0.17090810000000001</v>
+      </c>
+      <c r="M38" s="8">
+        <f>SUM(M35,M33)</f>
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
